--- a/docs/電腦打字國中英文乙組決賽名冊.xlsx
+++ b/docs/電腦打字國中英文乙組決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦打字國中英文乙組決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="186">
   <si>
     <t>序</t>
   </si>
@@ -48,100 +48,106 @@
     <t>大甲區日南國中</t>
   </si>
   <si>
-    <t>陳柏諠</t>
+    <t>陳駿雄</t>
   </si>
   <si>
     <t>陳隆勝</t>
   </si>
   <si>
-    <t>ncd42dx3</t>
-  </si>
-  <si>
-    <t>rs37nc3</t>
-  </si>
-  <si>
-    <t>王偲帆</t>
-  </si>
-  <si>
-    <t>hp3yg7</t>
-  </si>
-  <si>
-    <t>e43an5</t>
-  </si>
-  <si>
-    <t>大里區市立大里高中</t>
-  </si>
-  <si>
-    <t>許詠銓</t>
+    <t>dx9fr8</t>
+  </si>
+  <si>
+    <t>hp21jk7</t>
+  </si>
+  <si>
+    <t>吳聿軍</t>
+  </si>
+  <si>
+    <t>sm19d2</t>
+  </si>
+  <si>
+    <t>b30bj3</t>
+  </si>
+  <si>
+    <t>大安區大安國中</t>
+  </si>
+  <si>
+    <t>鄭鈜宇</t>
+  </si>
+  <si>
+    <t>蔡啟堂</t>
+  </si>
+  <si>
+    <t>bjk35r5</t>
+  </si>
+  <si>
+    <t>my82cd5</t>
+  </si>
+  <si>
+    <t>大里區大里高中</t>
+  </si>
+  <si>
+    <t>賴妍庭</t>
   </si>
   <si>
     <t>吳秀玲</t>
   </si>
   <si>
-    <t>xbj65fr6</t>
-  </si>
-  <si>
-    <t>smy97e4</t>
-  </si>
-  <si>
-    <t>陳揚承</t>
-  </si>
-  <si>
-    <t>h21t8</t>
-  </si>
-  <si>
-    <t>k96x3</t>
+    <t>wh92kf4</t>
+  </si>
+  <si>
+    <t>jkf91p6</t>
   </si>
   <si>
     <t>陳羿蓁</t>
   </si>
   <si>
-    <t>e46w3</t>
-  </si>
-  <si>
-    <t>xb16b3</t>
+    <t>xbj74x4</t>
+  </si>
+  <si>
+    <t>whp91et3</t>
   </si>
   <si>
     <t>陳羿蓒</t>
   </si>
   <si>
-    <t>my37et6</t>
-  </si>
-  <si>
-    <t>g85j7</t>
+    <t>kf12v4</t>
+  </si>
+  <si>
+    <t>jk98x6</t>
   </si>
   <si>
     <t>大里區立人高中</t>
   </si>
   <si>
-    <t>李喬茵</t>
+    <t>陳昱安</t>
   </si>
   <si>
     <t>黃玉勝</t>
   </si>
   <si>
-    <t>pet52m4</t>
-  </si>
-  <si>
-    <t>bjk17g6</t>
+    <t>x9m5</t>
+  </si>
+  <si>
+    <t>tv96g9</t>
+  </si>
+  <si>
+    <t>胡育騰</t>
+  </si>
+  <si>
+    <t>tv88d7</t>
+  </si>
+  <si>
+    <t>tv51pe7</t>
   </si>
   <si>
     <t>楊宥新</t>
   </si>
   <si>
-    <t>my86p7</t>
-  </si>
-  <si>
-    <t>etv25bj2</t>
-  </si>
-  <si>
-    <t>劉姵昀</t>
-  </si>
-  <si>
-    <t>pet75y2</t>
-  </si>
-  <si>
-    <t>hp94tv9</t>
+    <t>hp71cd4</t>
+  </si>
+  <si>
+    <t>gw39h6</t>
   </si>
   <si>
     <t>大里區光正國中</t>
@@ -150,154 +156,235 @@
     <t>李翊岑</t>
   </si>
   <si>
-    <t>汪莉娟</t>
-  </si>
-  <si>
-    <t>an11cd1</t>
-  </si>
-  <si>
-    <t>jk70e6</t>
-  </si>
-  <si>
-    <t>黃子銘</t>
-  </si>
-  <si>
-    <t>孔繼緯</t>
-  </si>
-  <si>
-    <t>s89bj8</t>
-  </si>
-  <si>
-    <t>cd58k8</t>
-  </si>
-  <si>
-    <t>周韋佑</t>
+    <t>江明達</t>
+  </si>
+  <si>
+    <t>n65c8</t>
+  </si>
+  <si>
+    <t>jkf14jk8</t>
+  </si>
+  <si>
+    <t>楊育翔</t>
   </si>
   <si>
     <t>蔡佩勤</t>
   </si>
   <si>
-    <t>myg95s8</t>
-  </si>
-  <si>
-    <t>t68k5</t>
+    <t>sm97x7</t>
+  </si>
+  <si>
+    <t>whp92k7</t>
+  </si>
+  <si>
+    <t>邱宗塏</t>
+  </si>
+  <si>
+    <t>tv59h7</t>
+  </si>
+  <si>
+    <t>wh65h2</t>
+  </si>
+  <si>
+    <t>許紘睿</t>
+  </si>
+  <si>
+    <t>xbj76p7</t>
+  </si>
+  <si>
+    <t>y29t6</t>
+  </si>
+  <si>
+    <t>北屯區三光國中</t>
+  </si>
+  <si>
+    <t>李翌豪</t>
+  </si>
+  <si>
+    <t>卓永祥</t>
+  </si>
+  <si>
+    <t>ncd14f7</t>
+  </si>
+  <si>
+    <t>pet49k6</t>
+  </si>
+  <si>
+    <t>林英楷</t>
+  </si>
+  <si>
+    <t>yg94w8</t>
+  </si>
+  <si>
+    <t>c50h1</t>
+  </si>
+  <si>
+    <t>北屯區葳格高中</t>
+  </si>
+  <si>
+    <t>李晨綾</t>
+  </si>
+  <si>
+    <t>黃俊儒</t>
+  </si>
+  <si>
+    <t>bjk50pe9</t>
+  </si>
+  <si>
+    <t>fr22v4</t>
   </si>
   <si>
     <t>北區立人國中</t>
   </si>
   <si>
-    <t>江柏毅</t>
+    <t>朱宏哲</t>
   </si>
   <si>
     <t>魏金羊</t>
   </si>
   <si>
-    <t>r89n8</t>
-  </si>
-  <si>
-    <t>v76x5</t>
-  </si>
-  <si>
-    <t>林宏儒</t>
-  </si>
-  <si>
-    <t>hp37h8</t>
-  </si>
-  <si>
-    <t>cdx5my5</t>
+    <t>v92jk8</t>
+  </si>
+  <si>
+    <t>w54my8</t>
+  </si>
+  <si>
+    <t>林紫茵</t>
+  </si>
+  <si>
+    <t>et16x1</t>
+  </si>
+  <si>
+    <t>g5f3</t>
+  </si>
+  <si>
+    <t>北區曉明女中</t>
+  </si>
+  <si>
+    <t>陳奕妡</t>
+  </si>
+  <si>
+    <t>劉國聲</t>
+  </si>
+  <si>
+    <t>jkf13g8</t>
+  </si>
+  <si>
+    <t>kfr75hp3</t>
+  </si>
+  <si>
+    <t>黃可昀</t>
+  </si>
+  <si>
+    <t>yg33bj1</t>
+  </si>
+  <si>
+    <t>et32dx3</t>
+  </si>
+  <si>
+    <t>沈秋利</t>
+  </si>
+  <si>
+    <t>v48yg3</t>
+  </si>
+  <si>
+    <t>sm36d5</t>
   </si>
   <si>
     <t>外埔區外埔國中</t>
   </si>
   <si>
+    <t>紀奕宏</t>
+  </si>
+  <si>
+    <t>林麗貞</t>
+  </si>
+  <si>
+    <t>rs53t8</t>
+  </si>
+  <si>
+    <t>hp5gw1</t>
+  </si>
+  <si>
+    <t>吳建瑋</t>
+  </si>
+  <si>
+    <t>kfr92p7</t>
+  </si>
+  <si>
+    <t>cd97j2</t>
+  </si>
+  <si>
     <t>傅翔義</t>
   </si>
   <si>
-    <t>林麗貞</t>
-  </si>
-  <si>
-    <t>nc51bj7</t>
-  </si>
-  <si>
-    <t>cd35r6</t>
-  </si>
-  <si>
-    <t>紀奕宏</t>
-  </si>
-  <si>
-    <t>my74d7</t>
-  </si>
-  <si>
-    <t>tv49t3</t>
-  </si>
-  <si>
-    <t>吳建瑋</t>
-  </si>
-  <si>
-    <t>g72r8</t>
-  </si>
-  <si>
-    <t>hpe83x3</t>
-  </si>
-  <si>
-    <t>洪荃俊</t>
-  </si>
-  <si>
-    <t>pe56hp2</t>
-  </si>
-  <si>
-    <t>wh18rs9</t>
+    <t>v5nc8</t>
+  </si>
+  <si>
+    <t>bj34cd5</t>
+  </si>
+  <si>
+    <t>后里區后里國中</t>
+  </si>
+  <si>
+    <t>梁祐銓</t>
+  </si>
+  <si>
+    <t>李秦宇</t>
+  </si>
+  <si>
+    <t>xb93jk5</t>
+  </si>
+  <si>
+    <t>wh16j7</t>
+  </si>
+  <si>
+    <t>王梓丞</t>
+  </si>
+  <si>
+    <t>t38k1</t>
+  </si>
+  <si>
+    <t>s97y5</t>
+  </si>
+  <si>
+    <t>西屯區安和國中</t>
+  </si>
+  <si>
+    <t>楊子頡</t>
+  </si>
+  <si>
+    <t>梁育誠</t>
+  </si>
+  <si>
+    <t>cd99x1</t>
+  </si>
+  <si>
+    <t>xb76p5</t>
   </si>
   <si>
     <t>西屯區至善國中</t>
   </si>
   <si>
-    <t>尤希堂</t>
+    <t>何炳誠</t>
   </si>
   <si>
     <t>邱贊生</t>
   </si>
   <si>
-    <t>fr32hp9</t>
-  </si>
-  <si>
-    <t>j84nc9</t>
-  </si>
-  <si>
-    <t>蘇珮毓</t>
-  </si>
-  <si>
-    <t>gwh75xb3</t>
-  </si>
-  <si>
-    <t>y10gw7</t>
-  </si>
-  <si>
-    <t>沙鹿區公明國中</t>
-  </si>
-  <si>
-    <t>翁楷倫</t>
-  </si>
-  <si>
-    <t>黃晏華</t>
-  </si>
-  <si>
-    <t>sm32y6</t>
-  </si>
-  <si>
-    <t>rs66my8</t>
-  </si>
-  <si>
-    <t>蔡竣杰</t>
-  </si>
-  <si>
-    <t>簡芳娥</t>
-  </si>
-  <si>
-    <t>b34n3</t>
-  </si>
-  <si>
-    <t>an66pe1</t>
+    <t>y84m7</t>
+  </si>
+  <si>
+    <t>tv88n6</t>
+  </si>
+  <si>
+    <t>黃馨儀</t>
+  </si>
+  <si>
+    <t>n11v8</t>
+  </si>
+  <si>
+    <t>xb61an3</t>
   </si>
   <si>
     <t>沙鹿區北勢國中</t>
@@ -309,28 +396,10 @@
     <t>杜建勳</t>
   </si>
   <si>
-    <t>e54cd7</t>
-  </si>
-  <si>
-    <t>dxb69cd2</t>
-  </si>
-  <si>
-    <t>陳中智</t>
-  </si>
-  <si>
-    <t>dx77b3</t>
-  </si>
-  <si>
-    <t>anc19sm4</t>
-  </si>
-  <si>
-    <t>陳昱均</t>
-  </si>
-  <si>
-    <t>rs4s2</t>
-  </si>
-  <si>
-    <t>ygw98tv1</t>
+    <t>ygw3rs3</t>
+  </si>
+  <si>
+    <t>kf61cd5</t>
   </si>
   <si>
     <t>南屯區大墩國中</t>
@@ -342,124 +411,100 @@
     <t>鍾承翰</t>
   </si>
   <si>
-    <t>yg60et9</t>
-  </si>
-  <si>
-    <t>a33bj8</t>
-  </si>
-  <si>
-    <t>陳美勳</t>
-  </si>
-  <si>
-    <t>tv63e6</t>
-  </si>
-  <si>
-    <t>bjk75n6</t>
-  </si>
-  <si>
-    <t>南區四育國中</t>
-  </si>
-  <si>
-    <t>陳晉聖</t>
-  </si>
-  <si>
-    <t>翁禎吟</t>
-  </si>
-  <si>
-    <t>smy82jk2</t>
-  </si>
-  <si>
-    <t>xbj67w2</t>
+    <t>et25cd3</t>
+  </si>
+  <si>
+    <t>gwh88pe5</t>
   </si>
   <si>
     <t>烏日區烏日國中</t>
   </si>
   <si>
+    <t>林致忠</t>
+  </si>
+  <si>
+    <t>張淑貞</t>
+  </si>
+  <si>
+    <t>nc23s1</t>
+  </si>
+  <si>
+    <t>y84j8</t>
+  </si>
+  <si>
     <t>楊婷雁</t>
   </si>
   <si>
-    <t>張淑貞</t>
-  </si>
-  <si>
-    <t>c45kf3</t>
-  </si>
-  <si>
-    <t>v82f9</t>
-  </si>
-  <si>
-    <t>林致忠</t>
-  </si>
-  <si>
-    <t>sm51et2</t>
-  </si>
-  <si>
-    <t>nc21sm7</t>
+    <t>tv97sm4</t>
+  </si>
+  <si>
+    <t>b67s6</t>
   </si>
   <si>
     <t>羅偉榤</t>
   </si>
   <si>
-    <t>jk33tv2</t>
-  </si>
-  <si>
-    <t>my17my2</t>
-  </si>
-  <si>
-    <t>黃姿瑜</t>
-  </si>
-  <si>
-    <t>yg20r4</t>
-  </si>
-  <si>
-    <t>h76g1</t>
-  </si>
-  <si>
-    <t>神岡區神岡國中</t>
-  </si>
-  <si>
-    <t>紀緯宏</t>
-  </si>
-  <si>
-    <t>廖國興</t>
-  </si>
-  <si>
-    <t>bj40y4</t>
-  </si>
-  <si>
-    <t>myg40x9</t>
+    <t>xb7rs5</t>
+  </si>
+  <si>
+    <t>c92c3</t>
+  </si>
+  <si>
+    <t>王季崴</t>
+  </si>
+  <si>
+    <t>fr82c3</t>
+  </si>
+  <si>
+    <t>tv43d6</t>
+  </si>
+  <si>
+    <t>烏日區溪南國中</t>
+  </si>
+  <si>
+    <t>江芸萱</t>
+  </si>
+  <si>
+    <t>胡啟有</t>
+  </si>
+  <si>
+    <t>v87g5</t>
+  </si>
+  <si>
+    <t>dxb34m2</t>
   </si>
   <si>
     <t>清水區清泉國中</t>
   </si>
   <si>
+    <t>吳峻楷</t>
+  </si>
+  <si>
+    <t>林清煙</t>
+  </si>
+  <si>
+    <t>hp84d7</t>
+  </si>
+  <si>
+    <t>kfr52x2</t>
+  </si>
+  <si>
     <t>林智偉</t>
   </si>
   <si>
-    <t>林清煙</t>
-  </si>
-  <si>
-    <t>etv46p7</t>
-  </si>
-  <si>
-    <t>hp61p6</t>
+    <t>rs33h3</t>
+  </si>
+  <si>
+    <t>whp19e1</t>
   </si>
   <si>
     <t>李宜峻</t>
   </si>
   <si>
-    <t>n57kf3</t>
-  </si>
-  <si>
-    <t>bjk28r6</t>
-  </si>
-  <si>
-    <t>卓柏睿</t>
-  </si>
-  <si>
-    <t>my39x6</t>
-  </si>
-  <si>
-    <t>k88cd3</t>
+    <t>yg14a4</t>
+  </si>
+  <si>
+    <t>s69e5</t>
   </si>
   <si>
     <t>潭子區潭子國中</t>
@@ -471,103 +516,67 @@
     <t>余澤民</t>
   </si>
   <si>
-    <t>nc98c2</t>
-  </si>
-  <si>
-    <t>yg21h7</t>
+    <t>f78d9</t>
+  </si>
+  <si>
+    <t>wh72gw4</t>
   </si>
   <si>
     <t>彭韋嘉</t>
   </si>
   <si>
-    <t>tv11w4</t>
-  </si>
-  <si>
-    <t>v12f2</t>
-  </si>
-  <si>
-    <t>林宇傑</t>
-  </si>
-  <si>
-    <t>蕭羽津</t>
-  </si>
-  <si>
-    <t>jk59sm3</t>
-  </si>
-  <si>
-    <t>g72a4</t>
+    <t>gw25jk6</t>
+  </si>
+  <si>
+    <t>d58h8</t>
+  </si>
+  <si>
+    <t>劉芳毓</t>
+  </si>
+  <si>
+    <t>yg90b2</t>
+  </si>
+  <si>
+    <t>yg85et4</t>
   </si>
   <si>
     <t>龍井區四箴國中</t>
   </si>
   <si>
+    <t>黃士耀</t>
+  </si>
+  <si>
+    <t>林永森</t>
+  </si>
+  <si>
+    <t>g81h7</t>
+  </si>
+  <si>
+    <t>bj23kf1</t>
+  </si>
+  <si>
     <t>吳懿恩</t>
   </si>
   <si>
-    <t>張文欽</t>
-  </si>
-  <si>
-    <t>yg21d9</t>
-  </si>
-  <si>
-    <t>tv71t4</t>
-  </si>
-  <si>
-    <t>宋庭毅</t>
-  </si>
-  <si>
-    <t>t55gw3</t>
-  </si>
-  <si>
-    <t>hp1nc2</t>
-  </si>
-  <si>
-    <t>徐健祐</t>
-  </si>
-  <si>
-    <t>cd34tv6</t>
-  </si>
-  <si>
-    <t>h51p6</t>
-  </si>
-  <si>
-    <t>霧峰區光復國中小</t>
-  </si>
-  <si>
-    <t>林益伸</t>
-  </si>
-  <si>
-    <t>蔡進雄</t>
-  </si>
-  <si>
-    <t>gw84c6</t>
-  </si>
-  <si>
-    <t>rs37rs7</t>
-  </si>
-  <si>
-    <t>曾千榕</t>
-  </si>
-  <si>
-    <t>游忠育</t>
-  </si>
-  <si>
-    <t>kf66xb6</t>
-  </si>
-  <si>
-    <t>hpe21fr3</t>
-  </si>
-  <si>
-    <t>潘俊達</t>
-  </si>
-  <si>
-    <t>蕭力旗</t>
-  </si>
-  <si>
-    <t>r68yg8</t>
-  </si>
-  <si>
-    <t>wh77et2</t>
+    <t>yg15j7</t>
+  </si>
+  <si>
+    <t>hpe62pe7</t>
+  </si>
+  <si>
+    <t>龍井區龍井國中</t>
+  </si>
+  <si>
+    <t>歐丞竣</t>
+  </si>
+  <si>
+    <t>梁永和</t>
+  </si>
+  <si>
+    <t>hp94my9</t>
+  </si>
+  <si>
+    <t>gw55bj5</t>
   </si>
 </sst>
 </file>
@@ -1569,11 +1578,11 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1676,19 +1685,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1699,19 +1708,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1722,19 +1731,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1745,19 +1754,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1768,19 +1777,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1791,19 +1800,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1814,19 +1823,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1837,19 +1846,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1860,19 +1869,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1883,19 +1892,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1906,19 +1915,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1929,19 +1938,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1952,19 +1961,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1975,19 +1984,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1998,19 +2007,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="F19" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2021,19 +2030,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2044,19 +2053,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="F21" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2067,19 +2076,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2090,19 +2099,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2113,13 +2122,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>96</v>
@@ -2136,13 +2145,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>98</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>99</v>
@@ -2159,19 +2168,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2182,13 +2191,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>107</v>
@@ -2205,19 +2214,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2228,19 +2237,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2251,13 +2260,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>120</v>
@@ -2274,19 +2283,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2297,19 +2306,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2320,19 +2329,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2343,19 +2352,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2366,19 +2375,19 @@
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2389,19 +2398,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2412,19 +2421,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2435,19 +2444,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2458,19 +2467,19 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2481,19 +2490,19 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2504,19 +2513,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2527,19 +2536,19 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2550,19 +2559,19 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2573,19 +2582,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2596,19 +2605,19 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D45" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="F45" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2619,19 +2628,19 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
